--- a/data_for_viewing/ff_spectator_words_found_context_separate.xlsx
+++ b/data_for_viewing/ff_spectator_words_found_context_separate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -181,9 +181,6 @@
     <t>1714-11-08</t>
   </si>
   <si>
-    <t>1714-12-20</t>
-  </si>
-  <si>
     <t>11.txt</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>617.txt</t>
   </si>
   <si>
-    <t>635.txt</t>
-  </si>
-  <si>
     <t>Preface.txt</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
   </si>
   <si>
     <t>No. 617</t>
-  </si>
-  <si>
-    <t>No. 635</t>
   </si>
   <si>
     <t>Preface</t>
@@ -887,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,16 +912,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -941,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -961,16 +952,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -981,16 +972,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,16 +992,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1021,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,16 +1052,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,16 +1072,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1101,16 +1092,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1121,16 +1112,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1141,16 +1132,16 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1161,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1181,16 +1172,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1201,16 +1192,16 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1221,16 +1212,16 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1241,16 +1232,16 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1261,16 +1252,16 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1281,16 +1272,16 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1301,16 +1292,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1321,16 +1312,16 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1341,16 +1332,16 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1361,16 +1352,16 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1381,16 +1372,16 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1401,16 +1392,16 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1421,16 +1412,16 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1441,16 +1432,16 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1461,16 +1452,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1481,16 +1472,16 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1501,16 +1492,16 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1521,16 +1512,16 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1541,16 +1532,16 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1561,16 +1552,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1581,16 +1572,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1601,16 +1592,16 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1621,16 +1612,16 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1641,16 +1632,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1661,16 +1652,16 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1681,16 +1672,16 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1701,16 +1692,16 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1721,16 +1712,16 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1741,16 +1732,16 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1761,16 +1752,16 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1781,16 +1772,16 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1801,16 +1792,16 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1821,16 +1812,16 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1841,16 +1832,16 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1861,16 +1852,16 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1881,16 +1872,16 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1901,16 +1892,16 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1921,16 +1912,16 @@
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1941,16 +1932,16 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1961,16 +1952,16 @@
         <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1981,16 +1972,16 @@
         <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2001,16 +1992,16 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2021,16 +2012,16 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,16 +2032,16 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2061,16 +2052,16 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,16 +2072,16 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2101,16 +2092,16 @@
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
         <v>112</v>
       </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2121,16 +2112,16 @@
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2141,16 +2132,16 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2161,16 +2152,16 @@
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2181,16 +2172,16 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2201,16 +2192,16 @@
         <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2218,19 +2209,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2238,19 +2229,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
         <v>106</v>
       </c>
-      <c r="D68" t="s">
-        <v>111</v>
-      </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2258,119 +2249,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
         <v>111</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
